--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3946.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3946.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3946</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Craig D Wallace</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -491,7 +556,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>12/07/2012</t>
@@ -499,7 +563,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -539,7 +603,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -547,7 +610,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -599,7 +662,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -651,7 +714,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -703,7 +766,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -755,7 +818,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -807,7 +870,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -859,7 +922,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -911,7 +974,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -963,7 +1026,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1015,7 +1078,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1055,7 +1118,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -1063,7 +1125,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1115,7 +1177,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1167,7 +1229,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1219,7 +1281,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1271,7 +1333,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1323,7 +1385,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1363,7 +1425,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -1371,7 +1432,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1423,7 +1484,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1475,7 +1536,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1527,7 +1588,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1579,7 +1640,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1631,7 +1692,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1683,7 +1744,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1735,7 +1796,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1787,7 +1848,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1839,7 +1900,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1891,7 +1952,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1943,7 +2004,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1995,7 +2056,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2047,7 +2108,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2099,7 +2160,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2130,6 +2191,561 @@
       <c r="J33" t="inlineStr">
         <is>
           <t>10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4091</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4118</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4120</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.19%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4155</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4363</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.43%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4364</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.31%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4365</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.77%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4366</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.61%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.36%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.36%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3946.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3946.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,6 +555,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>12/07/2012</t>
@@ -603,6 +603,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -615,7 +616,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1118,6 +1119,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -1425,6 +1427,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -2191,561 +2194,6 @@
       <c r="J33" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4091</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4111</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4113</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.30%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4118</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4120</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.68%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4140</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4142</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.43%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4153</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.19%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4155</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.24%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.15%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4363</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.43%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4364</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.31%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4365</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.77%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4366</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.36%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.36%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
